--- a/P1/temperaturas.xlsx
+++ b/P1/temperaturas.xlsx
@@ -38,7 +38,7 @@
     <t>1973-1-1</t>
   </si>
   <si>
-    <t>ipiales</t>
+    <t>Ipiales</t>
   </si>
   <si>
     <t>10.8</t>
@@ -1733,7 +1733,7 @@
     <t>1951-1-1</t>
   </si>
   <si>
-    <t>cali</t>
+    <t>Cali</t>
   </si>
   <si>
     <t>22.7</t>
@@ -2636,7 +2636,7 @@
     <t>21.5</t>
   </si>
   <si>
-    <t>bucaramanga</t>
+    <t>Bucaramanga</t>
   </si>
   <si>
     <t>21.6</t>
@@ -2681,7 +2681,7 @@
     <t>19.5</t>
   </si>
   <si>
-    <t>quilla</t>
+    <t>Barranquilla</t>
   </si>
   <si>
     <t>26.1</t>
@@ -2786,7 +2786,7 @@
     <t>29.6</t>
   </si>
   <si>
-    <t>bogota</t>
+    <t>Bogota</t>
   </si>
   <si>
     <t>13.5</t>
@@ -2943,7 +2943,6 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="5.46428571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.04081632653061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4081632653061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
